--- a/Story/3 - Psyche Deepdive/4 - Twisted Core/Twisted Core.xlsx
+++ b/Story/3 - Psyche Deepdive/4 - Twisted Core/Twisted Core.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\4 - Twisted Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19117BE2-C6B9-4848-BAAF-0D1847691B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E9B8C-A3B3-4714-B25C-675C56D9E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{52BECFC8-A237-42D9-AE34-374B5BA29D46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{52BECFC8-A237-42D9-AE34-374B5BA29D46}"/>
   </bookViews>
   <sheets>
     <sheet name="Erica Deepdive" sheetId="1" r:id="rId1"/>
@@ -9862,9 +9862,6 @@
     <t>ねじれたコア</t>
   </si>
   <si>
-    <t>왜곡된 핵심</t>
-  </si>
-  <si>
     <t>Noyau tordu</t>
   </si>
   <si>
@@ -9907,9 +9904,6 @@
     <t>彼女はミサグ大学によって復元された人偶です。\n 彼女の骨組みは金属で、心臓はシルバーコアであり、その構造は非常に精妙で、設計図を見ても二つと作ることは困難です。\n そして、彼女が冷たい機械となる以前、彼女には人間の心がありました。</t>
   </si>
   <si>
-    <t>그녀는 미사그 대학에서 복원된 인형입니다. \n 그녀의 뼈대는 금속으로, 그녀의 심장은 은심으로 이루어져 있어 그녀의 구조는 매우 정교하여 설계도를 보더라도 두 번째를 만들기는 어렵습니다. \n 그리고 그녀가 차가운 기계가 되기 전에는 인간의 마음을 가지고 있었습니다.</t>
-  </si>
-  <si>
     <t>Elle était une poupée restaurée par l'université de Mythag.\nSon squelette était en métal, son cœur en argent, sa structure était incroyablement délicate, même face aux dessins, il était presque impossible d'en construire un autre. \nAvant de devenir une machine glacée, elle avait un cœur humain</t>
   </si>
   <si>
@@ -10211,13 +10205,19 @@
   </si>
   <si>
     <t>Stage_20426_Name</t>
+  </si>
+  <si>
+    <t>뒤틀린 핵</t>
+  </si>
+  <si>
+    <t>그녀는 미사그 대학이 복원한 인형이다.\n뼈대는 금속으로, 심장은 은심으로 이루어져 있다. 그 구조는 매우 정교하여, 설계도를 본다고 해도 같은 것을 두 번 다시 만들기 어렵다.\n하지만 그녀가 차가운 기계가 되기 전에는, 인간의 마음을 지니고 있었다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10239,6 +10239,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -10264,10 +10270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10281,9 +10288,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{92EA3CB3-9476-42CA-B6AB-65DF533836DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10499,7 +10510,7 @@
   <dimension ref="A1:S295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10597,34 +10608,34 @@
       <c r="L2" t="s">
         <v>3252</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="N2" t="s">
         <v>3253</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>3254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>3255</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>3256</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>3257</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>3258</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3259</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B3" t="s">
         <v>3260</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3261</v>
       </c>
       <c r="C3" t="s">
         <v>3245</v>
@@ -10636,51 +10647,51 @@
         <v>3246</v>
       </c>
       <c r="F3" t="s">
+        <v>3261</v>
+      </c>
+      <c r="H3" t="s">
         <v>3262</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3263</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>3264</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>3265</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>3266</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="N3" t="s">
         <v>3267</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>3268</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>3269</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>3270</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>3271</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>3272</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3274</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="B4" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="C4" t="s">
         <v>3245</v>
@@ -10692,51 +10703,51 @@
         <v>3246</v>
       </c>
       <c r="F4" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I4" t="s">
         <v>3277</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>3278</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>3279</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>3280</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>3281</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>3282</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>3283</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>3284</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>3285</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>3286</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>3287</v>
-      </c>
-      <c r="R4" t="s">
-        <v>3288</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="B5" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="C5" t="s">
         <v>3245</v>
@@ -10765,34 +10776,34 @@
       <c r="L5" t="s">
         <v>3252</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="N5" t="s">
         <v>3253</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>3254</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>3255</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>3256</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>3257</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>3258</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3259</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="B6" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="C6" t="s">
         <v>3245</v>
@@ -10804,51 +10815,51 @@
         <v>3246</v>
       </c>
       <c r="F6" t="s">
+        <v>3261</v>
+      </c>
+      <c r="H6" t="s">
         <v>3262</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>3263</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>3264</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>3265</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>3266</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="N6" t="s">
         <v>3267</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>3268</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>3269</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>3270</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>3271</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>3272</v>
-      </c>
-      <c r="R6" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3274</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="B7" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="C7" t="s">
         <v>3245</v>
@@ -10860,51 +10871,51 @@
         <v>3246</v>
       </c>
       <c r="F7" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I7" t="s">
         <v>3277</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>3278</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>3279</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>3280</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="5" t="s">
         <v>3281</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>3282</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>3283</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>3284</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>3285</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>3286</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>3287</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3288</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B8" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="C8" t="s">
         <v>3245</v>
@@ -10933,34 +10944,34 @@
       <c r="L8" t="s">
         <v>3252</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="N8" t="s">
         <v>3253</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>3254</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>3255</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>3256</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>3257</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>3258</v>
-      </c>
-      <c r="S8" t="s">
-        <v>3259</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="B9" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="C9" t="s">
         <v>3245</v>
@@ -10972,51 +10983,51 @@
         <v>3246</v>
       </c>
       <c r="F9" t="s">
+        <v>3261</v>
+      </c>
+      <c r="H9" t="s">
         <v>3262</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>3263</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>3264</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>3265</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>3266</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="N9" t="s">
         <v>3267</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>3268</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>3269</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>3270</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>3271</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>3272</v>
-      </c>
-      <c r="R9" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3274</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="B10" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="C10" t="s">
         <v>3245</v>
@@ -11028,61 +11039,61 @@
         <v>3246</v>
       </c>
       <c r="F10" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I10" t="s">
         <v>3277</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>3278</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>3279</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>3280</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="5" t="s">
         <v>3281</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>3282</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>3283</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>3284</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>3285</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>3286</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>3287</v>
-      </c>
-      <c r="R10" t="s">
-        <v>3288</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C12" t="s">
         <v>3302</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3303</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3304</v>
       </c>
       <c r="D12">
         <v>1697</v>
       </c>
       <c r="E12" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F12" t="s">
         <v>3247</v>
@@ -11126,58 +11137,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="B13" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="C13" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D13">
         <v>1697</v>
       </c>
       <c r="E13" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F13" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="H13" t="s">
+        <v>3306</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="J13" t="s">
         <v>3308</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>3309</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>3310</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>3311</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>3312</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>3313</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>3314</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>3315</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>3316</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>3317</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3318</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14393,19 +14404,19 @@
     </row>
     <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="B70" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="C70" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D70">
         <v>1698</v>
       </c>
       <c r="E70" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F70" t="s">
         <v>3247</v>
@@ -14449,75 +14460,75 @@
     </row>
     <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="B71" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="C71" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D71">
         <v>1698</v>
       </c>
       <c r="E71" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F71" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="H71" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3323</v>
+      </c>
+      <c r="J71" t="s">
         <v>3324</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>3325</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>3326</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>3327</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>3328</v>
       </c>
-      <c r="M71" t="s">
+      <c r="O71" t="s">
         <v>3329</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" t="s">
         <v>3330</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
         <v>3331</v>
       </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
         <v>3332</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" t="s">
         <v>3333</v>
-      </c>
-      <c r="R71" t="s">
-        <v>3334</v>
-      </c>
-      <c r="S71" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="B72" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="C72" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D72">
         <v>1700</v>
       </c>
       <c r="E72" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F72" t="s">
         <v>3247</v>
@@ -14561,75 +14572,75 @@
     </row>
     <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="B73" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="C73" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D73">
         <v>1700</v>
       </c>
       <c r="E73" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F73" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="H73" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I73" t="s">
+        <v>3323</v>
+      </c>
+      <c r="J73" t="s">
         <v>3324</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>3325</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>3326</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>3327</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>3328</v>
       </c>
-      <c r="M73" t="s">
+      <c r="O73" t="s">
         <v>3329</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>3330</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>3331</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>3332</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
         <v>3333</v>
-      </c>
-      <c r="R73" t="s">
-        <v>3334</v>
-      </c>
-      <c r="S73" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="B74" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="C74" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D74">
         <v>1701</v>
       </c>
       <c r="E74" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F74" t="s">
         <v>3247</v>
@@ -14673,58 +14684,58 @@
     </row>
     <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="B75" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="C75" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D75">
         <v>1701</v>
       </c>
       <c r="E75" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F75" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="H75" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>3323</v>
+      </c>
+      <c r="J75" t="s">
         <v>3324</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>3325</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>3326</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>3327</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>3328</v>
       </c>
-      <c r="M75" t="s">
+      <c r="O75" t="s">
         <v>3329</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>3330</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>3331</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>3332</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>3333</v>
-      </c>
-      <c r="R75" t="s">
-        <v>3334</v>
-      </c>
-      <c r="S75" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24506,114 +24517,114 @@
     </row>
     <row r="249" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="B249" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="C249" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D249">
         <v>1699</v>
       </c>
       <c r="E249" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F249" t="s">
         <v>3247</v>
       </c>
       <c r="H249" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="I249" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="J249" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="K249" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="L249" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="M249" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="N249" t="s">
         <v>500</v>
       </c>
       <c r="O249" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="P249" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="Q249" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="R249" t="s">
         <v>496</v>
       </c>
       <c r="S249" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="250" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="B250" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="C250" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D250">
         <v>1699</v>
       </c>
       <c r="E250" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="F250" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="H250" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="I250" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="J250" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="K250" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="L250" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="M250" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="N250" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="O250" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="P250" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="Q250" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="R250" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="S250" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
